--- a/Code/Results/Cases/Case_0_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.157504156273816</v>
+        <v>4.917747328333864</v>
       </c>
       <c r="D2">
-        <v>6.58923555494087</v>
+        <v>9.649123242017136</v>
       </c>
       <c r="E2">
-        <v>8.700072935239502</v>
+        <v>13.75295520232479</v>
       </c>
       <c r="F2">
-        <v>20.80304584113899</v>
+        <v>29.97809133218519</v>
       </c>
       <c r="G2">
-        <v>23.15114716707251</v>
+        <v>29.76393326517837</v>
       </c>
       <c r="H2">
-        <v>8.683837729334645</v>
+        <v>14.51546782401138</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.650789538531094</v>
+        <v>9.918164087401998</v>
       </c>
       <c r="K2">
-        <v>17.64711408080332</v>
+        <v>12.47589778731886</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.34561120584874</v>
+        <v>16.22776373704685</v>
       </c>
       <c r="N2">
-        <v>12.27705952946402</v>
+        <v>17.59247050624991</v>
       </c>
       <c r="O2">
-        <v>14.42820449510537</v>
+        <v>22.23613916293464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.665323862007271</v>
+        <v>4.749897732964014</v>
       </c>
       <c r="D3">
-        <v>6.405779987281584</v>
+        <v>9.636106717478951</v>
       </c>
       <c r="E3">
-        <v>8.586682427724357</v>
+        <v>13.77058907617218</v>
       </c>
       <c r="F3">
-        <v>20.39607554815388</v>
+        <v>30.02210228545944</v>
       </c>
       <c r="G3">
-        <v>22.48005584181539</v>
+        <v>29.77942278589307</v>
       </c>
       <c r="H3">
-        <v>8.692962478961153</v>
+        <v>14.56017034592966</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.687005101150698</v>
+        <v>9.943897609557256</v>
       </c>
       <c r="K3">
-        <v>16.54514540882764</v>
+        <v>12.05482067005196</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.58927402354558</v>
+        <v>16.06776600651293</v>
       </c>
       <c r="N3">
-        <v>12.35825800680846</v>
+        <v>17.62848431112643</v>
       </c>
       <c r="O3">
-        <v>14.29409940462889</v>
+        <v>22.2978880073366</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.345886370217382</v>
+        <v>4.645211234778372</v>
       </c>
       <c r="D4">
-        <v>6.293129703089784</v>
+        <v>9.629497182937031</v>
       </c>
       <c r="E4">
-        <v>8.521354115391212</v>
+        <v>13.78368168684012</v>
       </c>
       <c r="F4">
-        <v>20.16188202026134</v>
+        <v>30.056759522099</v>
       </c>
       <c r="G4">
-        <v>22.08676608834472</v>
+        <v>29.79923387707428</v>
       </c>
       <c r="H4">
-        <v>8.705035534599061</v>
+        <v>14.5901573633214</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.711665771282703</v>
+        <v>9.96082688621671</v>
       </c>
       <c r="K4">
-        <v>15.82969704828416</v>
+        <v>11.78959653306535</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.10647930719386</v>
+        <v>15.97090735538339</v>
       </c>
       <c r="N4">
-        <v>12.41170055668266</v>
+        <v>17.65231689396271</v>
       </c>
       <c r="O4">
-        <v>14.225253976698</v>
+        <v>22.34102999933822</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.211348634896282</v>
+        <v>4.602218754300879</v>
       </c>
       <c r="D5">
-        <v>6.247285615382054</v>
+        <v>9.627153730014427</v>
       </c>
       <c r="E5">
-        <v>8.495817461695349</v>
+        <v>13.78958679285115</v>
       </c>
       <c r="F5">
-        <v>20.07041743608951</v>
+        <v>30.0727986150435</v>
       </c>
       <c r="G5">
-        <v>21.93136576638284</v>
+        <v>29.80989077146436</v>
       </c>
       <c r="H5">
-        <v>8.711524147335783</v>
+        <v>14.60301535223498</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.722310306723218</v>
+        <v>9.968009884887838</v>
       </c>
       <c r="K5">
-        <v>15.52839689053563</v>
+        <v>11.67999293003123</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.9053134282105</v>
+        <v>15.93182083169717</v>
       </c>
       <c r="N5">
-        <v>12.43436355245677</v>
+        <v>17.66246208115841</v>
       </c>
       <c r="O5">
-        <v>14.2005054743734</v>
+        <v>22.35992192035437</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.188744278870013</v>
+        <v>4.595062209807621</v>
       </c>
       <c r="D6">
-        <v>6.239678891904417</v>
+        <v>9.626785803189316</v>
       </c>
       <c r="E6">
-        <v>8.491642765387553</v>
+        <v>13.79060174471732</v>
       </c>
       <c r="F6">
-        <v>20.05547013345811</v>
+        <v>30.07557749151018</v>
       </c>
       <c r="G6">
-        <v>21.90585973498047</v>
+        <v>29.81181616353165</v>
       </c>
       <c r="H6">
-        <v>8.712694623479164</v>
+        <v>14.6051889311958</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.724113357537383</v>
+        <v>9.969219790155504</v>
       </c>
       <c r="K6">
-        <v>15.4777781882236</v>
+        <v>11.66170625272201</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.87164957898482</v>
+        <v>15.92535481475587</v>
       </c>
       <c r="N6">
-        <v>12.43817968496402</v>
+        <v>17.66417286822892</v>
       </c>
       <c r="O6">
-        <v>14.19659299036329</v>
+        <v>22.36313799953412</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.344089657986436</v>
+        <v>4.64463266069736</v>
       </c>
       <c r="D7">
-        <v>6.292511097018803</v>
+        <v>9.629464158328782</v>
       </c>
       <c r="E7">
-        <v>8.521005320199365</v>
+        <v>13.78375901814299</v>
       </c>
       <c r="F7">
-        <v>20.160632393956</v>
+        <v>30.05696807865281</v>
       </c>
       <c r="G7">
-        <v>22.08465040765191</v>
+        <v>29.79936714832373</v>
       </c>
       <c r="H7">
-        <v>8.705116767408803</v>
+        <v>14.59032818800737</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.711806936210281</v>
+        <v>9.960922607560287</v>
       </c>
       <c r="K7">
-        <v>15.82567305031972</v>
+        <v>11.7881243270998</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.10378392449591</v>
+        <v>15.97037861701874</v>
       </c>
       <c r="N7">
-        <v>12.41200263720637</v>
+        <v>17.65245196047401</v>
       </c>
       <c r="O7">
-        <v>14.22490694326934</v>
+        <v>22.34127947802893</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.991359650410936</v>
+        <v>4.860254629599658</v>
       </c>
       <c r="D8">
-        <v>6.526019023151113</v>
+        <v>9.644349610782227</v>
       </c>
       <c r="E8">
-        <v>8.660088730402155</v>
+        <v>13.75856529529244</v>
       </c>
       <c r="F8">
-        <v>20.65948662763383</v>
+        <v>29.99167978104645</v>
       </c>
       <c r="G8">
-        <v>22.91595567811925</v>
+        <v>29.7671329358103</v>
       </c>
       <c r="H8">
-        <v>8.68560591144688</v>
+        <v>14.53035386497014</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.662764606684251</v>
+        <v>9.926802928532991</v>
       </c>
       <c r="K8">
-        <v>17.2752205945513</v>
+        <v>12.33218708154996</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.08875569456335</v>
+        <v>16.17233235980786</v>
       </c>
       <c r="N8">
-        <v>12.30430174047045</v>
+        <v>17.60453151730681</v>
       </c>
       <c r="O8">
-        <v>14.37911458067479</v>
+        <v>22.2563431215364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.125267895263422</v>
+        <v>5.267114222794365</v>
       </c>
       <c r="D9">
-        <v>6.981235579723933</v>
+        <v>9.684402190549445</v>
       </c>
       <c r="E9">
-        <v>8.966550974900416</v>
+        <v>13.72712627943141</v>
       </c>
       <c r="F9">
-        <v>21.76042944426903</v>
+        <v>29.92436055019945</v>
       </c>
       <c r="G9">
-        <v>24.6878108944778</v>
+        <v>29.78584544671018</v>
       </c>
       <c r="H9">
-        <v>8.701291888532232</v>
+        <v>14.43291769475627</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.586513480204284</v>
+        <v>9.868835636379227</v>
       </c>
       <c r="K9">
-        <v>19.80967001210356</v>
+        <v>13.33988579251507</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.98123919537421</v>
+        <v>16.57766705123218</v>
       </c>
       <c r="N9">
-        <v>12.12238993067832</v>
+        <v>17.52417536104154</v>
       </c>
       <c r="O9">
-        <v>14.79200091104024</v>
+        <v>22.13140834789495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.877769792921153</v>
+        <v>5.552624964199505</v>
       </c>
       <c r="D10">
-        <v>7.310812256128162</v>
+        <v>9.720294545554895</v>
       </c>
       <c r="E10">
-        <v>9.211677068310067</v>
+        <v>13.7149638076438</v>
       </c>
       <c r="F10">
-        <v>22.64107708946011</v>
+        <v>29.91205194386992</v>
       </c>
       <c r="G10">
-        <v>26.06610681729461</v>
+        <v>29.84966453604632</v>
       </c>
       <c r="H10">
-        <v>8.749255819937479</v>
+        <v>14.3736609955584</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.543639321581009</v>
+        <v>9.831677083589149</v>
       </c>
       <c r="K10">
-        <v>21.48480441609187</v>
+        <v>14.03682818487487</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.37597336241755</v>
+        <v>16.87890664840292</v>
       </c>
       <c r="N10">
-        <v>12.00784824421858</v>
+        <v>17.47339606685334</v>
       </c>
       <c r="O10">
-        <v>15.16667363908061</v>
+        <v>22.06517828034541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.203041314759288</v>
+        <v>5.67894749264301</v>
       </c>
       <c r="D11">
-        <v>7.459096218261403</v>
+        <v>9.737989616750198</v>
       </c>
       <c r="E11">
-        <v>9.327375152934744</v>
+        <v>13.71179935702517</v>
       </c>
       <c r="F11">
-        <v>23.0565420780677</v>
+        <v>29.91453200781976</v>
       </c>
       <c r="G11">
-        <v>26.7077524847092</v>
+        <v>29.88955105000241</v>
       </c>
       <c r="H11">
-        <v>8.779740292692871</v>
+        <v>14.3493872326394</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.52722549340145</v>
+        <v>9.815947423545728</v>
       </c>
       <c r="K11">
-        <v>22.20665731800444</v>
+        <v>14.34317497224652</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.97713966243741</v>
+        <v>17.01621987018384</v>
       </c>
       <c r="N11">
-        <v>11.96019569216837</v>
+        <v>17.45207977921299</v>
       </c>
       <c r="O11">
-        <v>15.35326895474208</v>
+        <v>22.04063266115448</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.323798490757508</v>
+        <v>5.726224535106664</v>
       </c>
       <c r="D12">
-        <v>7.514968606997442</v>
+        <v>9.74488342847658</v>
       </c>
       <c r="E12">
-        <v>9.371775336793938</v>
+        <v>13.71094086089562</v>
       </c>
       <c r="F12">
-        <v>23.21593833222423</v>
+        <v>29.91663240673037</v>
       </c>
       <c r="G12">
-        <v>26.95268433465932</v>
+        <v>29.9062105917516</v>
       </c>
       <c r="H12">
-        <v>8.792590715277191</v>
+        <v>14.34058162737077</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.521475291515892</v>
+        <v>9.810159505525615</v>
       </c>
       <c r="K12">
-        <v>22.47426591098191</v>
+        <v>14.4575517341962</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.20004414699588</v>
+        <v>17.0682171841121</v>
       </c>
       <c r="N12">
-        <v>11.94281938766617</v>
+        <v>17.44426365373607</v>
       </c>
       <c r="O12">
-        <v>15.42629270814589</v>
+        <v>22.03214300028462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.297898158258972</v>
+        <v>5.716068110080101</v>
       </c>
       <c r="D13">
-        <v>7.502948557186816</v>
+        <v>9.743390194608363</v>
       </c>
       <c r="E13">
-        <v>9.362187049055997</v>
+        <v>13.71111065354952</v>
       </c>
       <c r="F13">
-        <v>23.18151852860264</v>
+        <v>29.91612841970725</v>
       </c>
       <c r="G13">
-        <v>26.89984916864878</v>
+        <v>29.90255359793237</v>
       </c>
       <c r="H13">
-        <v>8.789764080177402</v>
+        <v>14.34246087987215</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.522692655529839</v>
+        <v>9.811398544288991</v>
       </c>
       <c r="K13">
-        <v>22.41688633445461</v>
+        <v>14.43299250076118</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.15224792195196</v>
+        <v>17.05701927612969</v>
       </c>
       <c r="N13">
-        <v>11.94653147099456</v>
+        <v>17.44593562439559</v>
       </c>
       <c r="O13">
-        <v>15.41046000622667</v>
+        <v>22.03393555216958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.213024297588381</v>
+        <v>5.68284844732861</v>
       </c>
       <c r="D14">
-        <v>7.463698705912559</v>
+        <v>9.738552926425303</v>
       </c>
       <c r="E14">
-        <v>9.331016284708069</v>
+        <v>13.7117219224648</v>
       </c>
       <c r="F14">
-        <v>23.06961461869186</v>
+        <v>29.91468154206675</v>
       </c>
       <c r="G14">
-        <v>26.72786480753215</v>
+        <v>29.89089050822665</v>
       </c>
       <c r="H14">
-        <v>8.780770974527833</v>
+        <v>14.34865504390738</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.526742969544043</v>
+        <v>9.815467871213169</v>
       </c>
       <c r="K14">
-        <v>22.22878847998545</v>
+        <v>14.35261797535916</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.995572958287</v>
+        <v>17.0204979532037</v>
       </c>
       <c r="N14">
-        <v>11.95875256153442</v>
+        <v>17.45143161667765</v>
       </c>
       <c r="O14">
-        <v>15.35922907010979</v>
+        <v>22.03991806071469</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.16072302019187</v>
+        <v>5.662426403521365</v>
       </c>
       <c r="D15">
-        <v>7.439619434859135</v>
+        <v>9.735614994660487</v>
       </c>
       <c r="E15">
-        <v>9.311999414144868</v>
+        <v>13.71214057136049</v>
       </c>
       <c r="F15">
-        <v>23.00133770002734</v>
+        <v>29.91394648521394</v>
       </c>
       <c r="G15">
-        <v>26.62276976480983</v>
+        <v>29.88394888226022</v>
       </c>
       <c r="H15">
-        <v>8.775434379379668</v>
+        <v>14.35249947911403</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.529285152262352</v>
+        <v>9.817982395965668</v>
       </c>
       <c r="K15">
-        <v>22.11282656637092</v>
+        <v>14.30317142505617</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.89898858588628</v>
+        <v>16.99812637588976</v>
       </c>
       <c r="N15">
-        <v>11.96632629343031</v>
+        <v>17.45483137833432</v>
       </c>
       <c r="O15">
-        <v>15.32815762976435</v>
+        <v>22.04368745209466</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.856172504215756</v>
+        <v>5.544293759191604</v>
       </c>
       <c r="D16">
-        <v>7.301084681082846</v>
+        <v>9.719165347216711</v>
       </c>
       <c r="E16">
-        <v>9.20419897645592</v>
+        <v>13.71521820774321</v>
       </c>
       <c r="F16">
-        <v>22.61421856265852</v>
+        <v>29.91205241693719</v>
       </c>
       <c r="G16">
-        <v>26.02445515211149</v>
+        <v>29.84727586633919</v>
       </c>
       <c r="H16">
-        <v>8.747443152681685</v>
+        <v>14.37530137317372</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.54477595109049</v>
+        <v>9.832728655313492</v>
       </c>
       <c r="K16">
-        <v>21.43682412541165</v>
+        <v>14.01658434832757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.33601932482413</v>
+        <v>16.86993505149454</v>
       </c>
       <c r="N16">
-        <v>12.01105442993966</v>
+        <v>17.47482497529791</v>
       </c>
       <c r="O16">
-        <v>15.15480794633743</v>
+        <v>22.06689494911797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.664999450534983</v>
+        <v>5.470876814201532</v>
       </c>
       <c r="D17">
-        <v>7.215645022187503</v>
+        <v>9.709421782657737</v>
       </c>
       <c r="E17">
-        <v>9.139129474029444</v>
+        <v>13.71771233269658</v>
       </c>
       <c r="F17">
-        <v>22.3804893728677</v>
+        <v>29.9129596791701</v>
       </c>
       <c r="G17">
-        <v>25.66104712433958</v>
+        <v>29.82755515302822</v>
       </c>
       <c r="H17">
-        <v>8.732534202668324</v>
+        <v>14.38997707211652</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.555085035616547</v>
+        <v>9.842075505834591</v>
       </c>
       <c r="K17">
-        <v>21.01185230646155</v>
+        <v>13.8379639091931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.98215668831695</v>
+        <v>16.7913362492041</v>
       </c>
       <c r="N17">
-        <v>12.03965370142541</v>
+        <v>17.48754677895933</v>
       </c>
       <c r="O17">
-        <v>15.05263267860563</v>
+        <v>22.08256370781773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.553435214678903</v>
+        <v>5.428316902211532</v>
       </c>
       <c r="D18">
-        <v>7.166350100974997</v>
+        <v>9.703946479296768</v>
       </c>
       <c r="E18">
-        <v>9.102098397232272</v>
+        <v>13.71936985836182</v>
       </c>
       <c r="F18">
-        <v>22.24745663636036</v>
+        <v>29.91424206595592</v>
       </c>
       <c r="G18">
-        <v>25.45341166849211</v>
+        <v>29.81723451237126</v>
       </c>
       <c r="H18">
-        <v>8.724771030186329</v>
+        <v>14.39867059176237</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.56130404861577</v>
+        <v>9.847562079632549</v>
       </c>
       <c r="K18">
-        <v>20.76363583532632</v>
+        <v>13.73422417735951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.77548649720732</v>
+        <v>16.74615682485651</v>
       </c>
       <c r="N18">
-        <v>12.05652056046874</v>
+        <v>17.49503192577197</v>
       </c>
       <c r="O18">
-        <v>14.99538276893592</v>
+        <v>22.092101313232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.515384506585121</v>
+        <v>5.413851273987475</v>
       </c>
       <c r="D19">
-        <v>7.149634937383423</v>
+        <v>9.702114886336915</v>
       </c>
       <c r="E19">
-        <v>9.089628626011903</v>
+        <v>13.71996938407968</v>
       </c>
       <c r="F19">
-        <v>22.20265694148357</v>
+        <v>29.91480688734866</v>
       </c>
       <c r="G19">
-        <v>25.38335306961939</v>
+        <v>29.8139158140366</v>
       </c>
       <c r="H19">
-        <v>8.722280167456155</v>
+        <v>14.4016574067452</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.56345879965989</v>
+        <v>9.849438727581706</v>
       </c>
       <c r="K19">
-        <v>20.67894312803724</v>
+        <v>13.69893058559836</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.70497128751137</v>
+        <v>16.7308659797091</v>
       </c>
       <c r="N19">
-        <v>12.06230223524786</v>
+        <v>17.49759512274295</v>
       </c>
       <c r="O19">
-        <v>14.97625838599543</v>
+        <v>22.09542073271923</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.685516170489624</v>
+        <v>5.478726935860399</v>
       </c>
       <c r="D20">
-        <v>7.224756311617384</v>
+        <v>9.710445682460069</v>
       </c>
       <c r="E20">
-        <v>9.146015439461893</v>
+        <v>13.71742375716477</v>
       </c>
       <c r="F20">
-        <v>22.40522562717267</v>
+        <v>29.91278438610302</v>
       </c>
       <c r="G20">
-        <v>25.69959011942244</v>
+        <v>29.82954869631664</v>
       </c>
       <c r="H20">
-        <v>8.734036799413241</v>
+        <v>14.38838868716336</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.553957505153672</v>
+        <v>9.841069081825271</v>
       </c>
       <c r="K20">
-        <v>21.05748266504755</v>
+        <v>13.85708276334711</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.02015040005854</v>
+        <v>16.79970056593935</v>
       </c>
       <c r="N20">
-        <v>12.03656587135182</v>
+        <v>17.48617514819478</v>
       </c>
       <c r="O20">
-        <v>15.0633519209368</v>
+        <v>22.08084135134079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.238019094900576</v>
+        <v>5.692621373875485</v>
       </c>
       <c r="D21">
-        <v>7.475235245541274</v>
+        <v>9.739968538770954</v>
       </c>
       <c r="E21">
-        <v>9.340156055616141</v>
+        <v>13.71153316220935</v>
       </c>
       <c r="F21">
-        <v>23.1024278869915</v>
+        <v>29.9150750179509</v>
       </c>
       <c r="G21">
-        <v>26.77832885616811</v>
+        <v>29.89427408327161</v>
       </c>
       <c r="H21">
-        <v>8.783376528369891</v>
+        <v>14.34682517781491</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.525540490775346</v>
+        <v>9.814268038477861</v>
       </c>
       <c r="K21">
-        <v>22.28419288722093</v>
+        <v>14.37627084165804</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.0417205719853</v>
+        <v>17.03122547464306</v>
       </c>
       <c r="N21">
-        <v>11.95514454630248</v>
+        <v>17.44981037022988</v>
       </c>
       <c r="O21">
-        <v>15.37421238112002</v>
+        <v>22.03813898125131</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.585045994048476</v>
+        <v>5.829140032493616</v>
       </c>
       <c r="D22">
-        <v>7.637291880948951</v>
+        <v>9.760387020442311</v>
       </c>
       <c r="E22">
-        <v>9.47045794795339</v>
+        <v>13.70966355975708</v>
       </c>
       <c r="F22">
-        <v>23.57011939716227</v>
+        <v>29.92333983984734</v>
       </c>
       <c r="G22">
-        <v>27.49468344839013</v>
+        <v>29.94563764077175</v>
       </c>
       <c r="H22">
-        <v>8.823266295627255</v>
+        <v>14.32191318262609</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.509691426828253</v>
+        <v>9.797734407629614</v>
       </c>
       <c r="K22">
-        <v>23.0524740602039</v>
+        <v>14.70605359909113</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.68174644488773</v>
+        <v>17.1825208581911</v>
       </c>
       <c r="N22">
-        <v>11.90584335069126</v>
+        <v>17.4275351515392</v>
       </c>
       <c r="O22">
-        <v>15.59117239565251</v>
+        <v>22.01492493753267</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.401106336863533</v>
+        <v>5.75659112541301</v>
       </c>
       <c r="D23">
-        <v>7.550962812994371</v>
+        <v>9.749387710244362</v>
       </c>
       <c r="E23">
-        <v>9.400605215558761</v>
+        <v>13.71048049301148</v>
       </c>
       <c r="F23">
-        <v>23.31942420553555</v>
+        <v>29.91830991692808</v>
       </c>
       <c r="G23">
-        <v>27.11135941047272</v>
+        <v>29.91739721558606</v>
       </c>
       <c r="H23">
-        <v>8.801257232355185</v>
+        <v>14.33500291485374</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.517893939539672</v>
+        <v>9.806468909401394</v>
       </c>
       <c r="K23">
-        <v>22.64547487763108</v>
+        <v>14.53094254148284</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.34266492634235</v>
+        <v>17.10178657951132</v>
       </c>
       <c r="N23">
-        <v>11.93178840203699</v>
+        <v>17.43928758972081</v>
       </c>
       <c r="O23">
-        <v>15.47410262425254</v>
+        <v>22.02688444371876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.676245723040569</v>
+        <v>5.475178987197774</v>
       </c>
       <c r="D24">
-        <v>7.220637637915585</v>
+        <v>9.709982383373191</v>
       </c>
       <c r="E24">
-        <v>9.14290111522625</v>
+        <v>13.71755352555987</v>
       </c>
       <c r="F24">
-        <v>22.394038183619</v>
+        <v>29.91286126625358</v>
       </c>
       <c r="G24">
-        <v>25.68216079317271</v>
+        <v>29.82864424692482</v>
       </c>
       <c r="H24">
-        <v>8.73335496271603</v>
+        <v>14.38910599778651</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.554466353169419</v>
+        <v>9.841523734285881</v>
       </c>
       <c r="K24">
-        <v>21.03686531308956</v>
+        <v>13.84844238799241</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.00298350661149</v>
+        <v>16.79591903011378</v>
       </c>
       <c r="N24">
-        <v>12.03796055842301</v>
+        <v>17.48679472909744</v>
       </c>
       <c r="O24">
-        <v>15.05850110737578</v>
+        <v>22.0816183797458</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.832810608609921</v>
+        <v>5.159161381112855</v>
       </c>
       <c r="D25">
-        <v>6.858725924775176</v>
+        <v>9.672419357318821</v>
       </c>
       <c r="E25">
-        <v>8.880089099763984</v>
+        <v>13.73370921650891</v>
       </c>
       <c r="F25">
-        <v>21.44974168751428</v>
+        <v>29.93605489147386</v>
       </c>
       <c r="G25">
-        <v>24.19433019797328</v>
+        <v>29.77199075773625</v>
       </c>
       <c r="H25">
-        <v>8.690905034631935</v>
+        <v>14.45711373251531</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.604908764104176</v>
+        <v>9.883562268589346</v>
       </c>
       <c r="K25">
-        <v>19.15696270908218</v>
+        <v>13.07442313536366</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.43780164388968</v>
+        <v>16.46724707371117</v>
       </c>
       <c r="N25">
-        <v>12.16834330546117</v>
+        <v>17.5444605757425</v>
       </c>
       <c r="O25">
-        <v>14.66802937683701</v>
+        <v>22.16073027034967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_232/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917747328333864</v>
+        <v>7.157504156273929</v>
       </c>
       <c r="D2">
-        <v>9.649123242017136</v>
+        <v>6.589235554940799</v>
       </c>
       <c r="E2">
-        <v>13.75295520232479</v>
+        <v>8.700072935239453</v>
       </c>
       <c r="F2">
-        <v>29.97809133218519</v>
+        <v>20.80304584113883</v>
       </c>
       <c r="G2">
-        <v>29.76393326517837</v>
+        <v>23.15114716707242</v>
       </c>
       <c r="H2">
-        <v>14.51546782401138</v>
+        <v>8.6838377293346</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.918164087401998</v>
+        <v>5.650789538531097</v>
       </c>
       <c r="K2">
-        <v>12.47589778731886</v>
+        <v>17.64711408080333</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.22776373704685</v>
+        <v>14.34561120584872</v>
       </c>
       <c r="N2">
-        <v>17.59247050624991</v>
+        <v>12.27705952946396</v>
       </c>
       <c r="O2">
-        <v>22.23613916293464</v>
+        <v>14.42820449510526</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749897732964014</v>
+        <v>6.665323862007309</v>
       </c>
       <c r="D3">
-        <v>9.636106717478951</v>
+        <v>6.405779987281574</v>
       </c>
       <c r="E3">
-        <v>13.77058907617218</v>
+        <v>8.586682427724361</v>
       </c>
       <c r="F3">
-        <v>30.02210228545944</v>
+        <v>20.39607554815393</v>
       </c>
       <c r="G3">
-        <v>29.77942278589307</v>
+        <v>22.4800558418154</v>
       </c>
       <c r="H3">
-        <v>14.56017034592966</v>
+        <v>8.692962478961149</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.943897609557256</v>
+        <v>5.687005101150699</v>
       </c>
       <c r="K3">
-        <v>12.05482067005196</v>
+        <v>16.54514540882757</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.06776600651293</v>
+        <v>13.58927402354559</v>
       </c>
       <c r="N3">
-        <v>17.62848431112643</v>
+        <v>12.35825800680846</v>
       </c>
       <c r="O3">
-        <v>22.2978880073366</v>
+        <v>14.29409940462894</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.645211234778372</v>
+        <v>6.345886370217399</v>
       </c>
       <c r="D4">
-        <v>9.629497182937031</v>
+        <v>6.293129703089771</v>
       </c>
       <c r="E4">
-        <v>13.78368168684012</v>
+        <v>8.521354115391155</v>
       </c>
       <c r="F4">
-        <v>30.056759522099</v>
+        <v>20.1618820202613</v>
       </c>
       <c r="G4">
-        <v>29.79923387707428</v>
+        <v>22.08676608834467</v>
       </c>
       <c r="H4">
-        <v>14.5901573633214</v>
+        <v>8.705035534599061</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.96082688621671</v>
+        <v>5.711665771282676</v>
       </c>
       <c r="K4">
-        <v>11.78959653306535</v>
+        <v>15.82969704828419</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.97090735538339</v>
+        <v>13.10647930719384</v>
       </c>
       <c r="N4">
-        <v>17.65231689396271</v>
+        <v>12.41170055668266</v>
       </c>
       <c r="O4">
-        <v>22.34102999933822</v>
+        <v>14.22525397669796</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602218754300879</v>
+        <v>6.211348634896281</v>
       </c>
       <c r="D5">
-        <v>9.627153730014427</v>
+        <v>6.24728561538207</v>
       </c>
       <c r="E5">
-        <v>13.78958679285115</v>
+        <v>8.495817461695189</v>
       </c>
       <c r="F5">
-        <v>30.0727986150435</v>
+        <v>20.07041743608936</v>
       </c>
       <c r="G5">
-        <v>29.80989077146436</v>
+        <v>21.9313657663828</v>
       </c>
       <c r="H5">
-        <v>14.60301535223498</v>
+        <v>8.71152414733568</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.968009884887838</v>
+        <v>5.722310306723156</v>
       </c>
       <c r="K5">
-        <v>11.67999293003123</v>
+        <v>15.52839689053566</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.93182083169717</v>
+        <v>12.90531342821046</v>
       </c>
       <c r="N5">
-        <v>17.66246208115841</v>
+        <v>12.43436355245673</v>
       </c>
       <c r="O5">
-        <v>22.35992192035437</v>
+        <v>14.20050547437335</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.595062209807621</v>
+        <v>6.188744278870013</v>
       </c>
       <c r="D6">
-        <v>9.626785803189316</v>
+        <v>6.239678891904394</v>
       </c>
       <c r="E6">
-        <v>13.79060174471732</v>
+        <v>8.49164276538751</v>
       </c>
       <c r="F6">
-        <v>30.07557749151018</v>
+        <v>20.05547013345803</v>
       </c>
       <c r="G6">
-        <v>29.81181616353165</v>
+        <v>21.90585973498041</v>
       </c>
       <c r="H6">
-        <v>14.6051889311958</v>
+        <v>8.712694623479161</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.969219790155504</v>
+        <v>5.724113357537384</v>
       </c>
       <c r="K6">
-        <v>11.66170625272201</v>
+        <v>15.47777818822365</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.92535481475587</v>
+        <v>12.8716495789848</v>
       </c>
       <c r="N6">
-        <v>17.66417286822892</v>
+        <v>12.43817968496402</v>
       </c>
       <c r="O6">
-        <v>22.36313799953412</v>
+        <v>14.19659299036324</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.64463266069736</v>
+        <v>6.344089657986436</v>
       </c>
       <c r="D7">
-        <v>9.629464158328782</v>
+        <v>6.29251109701883</v>
       </c>
       <c r="E7">
-        <v>13.78375901814299</v>
+        <v>8.521005320199325</v>
       </c>
       <c r="F7">
-        <v>30.05696807865281</v>
+        <v>20.16063239395592</v>
       </c>
       <c r="G7">
-        <v>29.79936714832373</v>
+        <v>22.08465040765175</v>
       </c>
       <c r="H7">
-        <v>14.59032818800737</v>
+        <v>8.705116767408756</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.960922607560287</v>
+        <v>5.711806936210227</v>
       </c>
       <c r="K7">
-        <v>11.7881243270998</v>
+        <v>15.82567305031976</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.97037861701874</v>
+        <v>13.10378392449588</v>
       </c>
       <c r="N7">
-        <v>17.65245196047401</v>
+        <v>12.41200263720634</v>
       </c>
       <c r="O7">
-        <v>22.34127947802893</v>
+        <v>14.22490694326922</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860254629599658</v>
+        <v>6.991359650410955</v>
       </c>
       <c r="D8">
-        <v>9.644349610782227</v>
+        <v>6.526019023151107</v>
       </c>
       <c r="E8">
-        <v>13.75856529529244</v>
+        <v>8.6600887304021</v>
       </c>
       <c r="F8">
-        <v>29.99167978104645</v>
+        <v>20.65948662763391</v>
       </c>
       <c r="G8">
-        <v>29.7671329358103</v>
+        <v>22.91595567811931</v>
       </c>
       <c r="H8">
-        <v>14.53035386497014</v>
+        <v>8.685605911446935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.926802928532991</v>
+        <v>5.662764606684226</v>
       </c>
       <c r="K8">
-        <v>12.33218708154996</v>
+        <v>17.27522059455124</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.17233235980786</v>
+        <v>14.08875569456336</v>
       </c>
       <c r="N8">
-        <v>17.60453151730681</v>
+        <v>12.30430174047045</v>
       </c>
       <c r="O8">
-        <v>22.2563431215364</v>
+        <v>14.37911458067486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.267114222794365</v>
+        <v>8.125267895263397</v>
       </c>
       <c r="D9">
-        <v>9.684402190549445</v>
+        <v>6.981235579723926</v>
       </c>
       <c r="E9">
-        <v>13.72712627943141</v>
+        <v>8.966550974900438</v>
       </c>
       <c r="F9">
-        <v>29.92436055019945</v>
+        <v>21.76042944426901</v>
       </c>
       <c r="G9">
-        <v>29.78584544671018</v>
+        <v>24.68781089447778</v>
       </c>
       <c r="H9">
-        <v>14.43291769475627</v>
+        <v>8.701291888532243</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.868835636379227</v>
+        <v>5.586513480204291</v>
       </c>
       <c r="K9">
-        <v>13.33988579251507</v>
+        <v>19.80967001210356</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.57766705123218</v>
+        <v>15.98123919537421</v>
       </c>
       <c r="N9">
-        <v>17.52417536104154</v>
+        <v>12.12238993067829</v>
       </c>
       <c r="O9">
-        <v>22.13140834789495</v>
+        <v>14.79200091104021</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.552624964199505</v>
+        <v>8.877769792921162</v>
       </c>
       <c r="D10">
-        <v>9.720294545554895</v>
+        <v>7.310812256128214</v>
       </c>
       <c r="E10">
-        <v>13.7149638076438</v>
+        <v>9.211677068310065</v>
       </c>
       <c r="F10">
-        <v>29.91205194386992</v>
+        <v>22.64107708946017</v>
       </c>
       <c r="G10">
-        <v>29.84966453604632</v>
+        <v>26.06610681729465</v>
       </c>
       <c r="H10">
-        <v>14.3736609955584</v>
+        <v>8.749255819937499</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.831677083589149</v>
+        <v>5.543639321580984</v>
       </c>
       <c r="K10">
-        <v>14.03682818487487</v>
+        <v>21.4848044160919</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.87890664840292</v>
+        <v>17.37597336241756</v>
       </c>
       <c r="N10">
-        <v>17.47339606685334</v>
+        <v>12.00784824421861</v>
       </c>
       <c r="O10">
-        <v>22.06517828034541</v>
+        <v>15.16667363908063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.67894749264301</v>
+        <v>9.203041314759311</v>
       </c>
       <c r="D11">
-        <v>9.737989616750198</v>
+        <v>7.459096218261406</v>
       </c>
       <c r="E11">
-        <v>13.71179935702517</v>
+        <v>9.327375152934739</v>
       </c>
       <c r="F11">
-        <v>29.91453200781976</v>
+        <v>23.05654207806764</v>
       </c>
       <c r="G11">
-        <v>29.88955105000241</v>
+        <v>26.70775248470913</v>
       </c>
       <c r="H11">
-        <v>14.3493872326394</v>
+        <v>8.779740292692786</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.815947423545728</v>
+        <v>5.527225493401454</v>
       </c>
       <c r="K11">
-        <v>14.34317497224652</v>
+        <v>22.2066573180045</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.01621987018384</v>
+        <v>17.97713966243743</v>
       </c>
       <c r="N11">
-        <v>17.45207977921299</v>
+        <v>11.96019569216834</v>
       </c>
       <c r="O11">
-        <v>22.04063266115448</v>
+        <v>15.35326895474201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.726224535106664</v>
+        <v>9.323798490757492</v>
       </c>
       <c r="D12">
-        <v>9.74488342847658</v>
+        <v>7.514968606997482</v>
       </c>
       <c r="E12">
-        <v>13.71094086089562</v>
+        <v>9.371775336794018</v>
       </c>
       <c r="F12">
-        <v>29.91663240673037</v>
+        <v>23.21593833222431</v>
       </c>
       <c r="G12">
-        <v>29.9062105917516</v>
+        <v>26.95268433465934</v>
       </c>
       <c r="H12">
-        <v>14.34058162737077</v>
+        <v>8.79259071527723</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.810159505525615</v>
+        <v>5.521475291515922</v>
       </c>
       <c r="K12">
-        <v>14.4575517341962</v>
+        <v>22.47426591098189</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.0682171841121</v>
+        <v>18.20004414699584</v>
       </c>
       <c r="N12">
-        <v>17.44426365373607</v>
+        <v>11.94281938766627</v>
       </c>
       <c r="O12">
-        <v>22.03214300028462</v>
+        <v>15.42629270814595</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.716068110080101</v>
+        <v>9.297898158259049</v>
       </c>
       <c r="D13">
-        <v>9.743390194608363</v>
+        <v>7.502948557186774</v>
       </c>
       <c r="E13">
-        <v>13.71111065354952</v>
+        <v>9.362187049056047</v>
       </c>
       <c r="F13">
-        <v>29.91612841970725</v>
+        <v>23.18151852860259</v>
       </c>
       <c r="G13">
-        <v>29.90255359793237</v>
+        <v>26.89984916864872</v>
       </c>
       <c r="H13">
-        <v>14.34246087987215</v>
+        <v>8.789764080177408</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.811398544288991</v>
+        <v>5.522692655529926</v>
       </c>
       <c r="K13">
-        <v>14.43299250076118</v>
+        <v>22.41688633445463</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.05701927612969</v>
+        <v>18.15224792195195</v>
       </c>
       <c r="N13">
-        <v>17.44593562439559</v>
+        <v>11.94653147099458</v>
       </c>
       <c r="O13">
-        <v>22.03393555216958</v>
+        <v>15.41046000622664</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.68284844732861</v>
+        <v>9.213024297588323</v>
       </c>
       <c r="D14">
-        <v>9.738552926425303</v>
+        <v>7.463698705912602</v>
       </c>
       <c r="E14">
-        <v>13.7117219224648</v>
+        <v>9.331016284708097</v>
       </c>
       <c r="F14">
-        <v>29.91468154206675</v>
+        <v>23.06961461869178</v>
       </c>
       <c r="G14">
-        <v>29.89089050822665</v>
+        <v>26.72786480753204</v>
       </c>
       <c r="H14">
-        <v>14.34865504390738</v>
+        <v>8.780770974527826</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.815467871213169</v>
+        <v>5.526742969544076</v>
       </c>
       <c r="K14">
-        <v>14.35261797535916</v>
+        <v>22.2287884799855</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.0204979532037</v>
+        <v>17.995572958287</v>
       </c>
       <c r="N14">
-        <v>17.45143161667765</v>
+        <v>11.9587525615344</v>
       </c>
       <c r="O14">
-        <v>22.03991806071469</v>
+        <v>15.3592290701097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.662426403521365</v>
+        <v>9.160723020192005</v>
       </c>
       <c r="D15">
-        <v>9.735614994660487</v>
+        <v>7.439619434859182</v>
       </c>
       <c r="E15">
-        <v>13.71214057136049</v>
+        <v>9.311999414144932</v>
       </c>
       <c r="F15">
-        <v>29.91394648521394</v>
+        <v>23.00133770002735</v>
       </c>
       <c r="G15">
-        <v>29.88394888226022</v>
+        <v>26.62276976480979</v>
       </c>
       <c r="H15">
-        <v>14.35249947911403</v>
+        <v>8.775434379379702</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.817982395965668</v>
+        <v>5.529285152262328</v>
       </c>
       <c r="K15">
-        <v>14.30317142505617</v>
+        <v>22.11282656637089</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.99812637588976</v>
+        <v>17.89898858588624</v>
       </c>
       <c r="N15">
-        <v>17.45483137833432</v>
+        <v>11.96632629343031</v>
       </c>
       <c r="O15">
-        <v>22.04368745209466</v>
+        <v>15.32815762976436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.544293759191604</v>
+        <v>8.856172504215829</v>
       </c>
       <c r="D16">
-        <v>9.719165347216711</v>
+        <v>7.301084681082838</v>
       </c>
       <c r="E16">
-        <v>13.71521820774321</v>
+        <v>9.204198976455926</v>
       </c>
       <c r="F16">
-        <v>29.91205241693719</v>
+        <v>22.61421856265845</v>
       </c>
       <c r="G16">
-        <v>29.84727586633919</v>
+        <v>26.02445515211142</v>
       </c>
       <c r="H16">
-        <v>14.37530137317372</v>
+        <v>8.747443152681639</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.832728655313492</v>
+        <v>5.54477595109052</v>
       </c>
       <c r="K16">
-        <v>14.01658434832757</v>
+        <v>21.43682412541165</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.86993505149454</v>
+        <v>17.33601932482414</v>
       </c>
       <c r="N16">
-        <v>17.47482497529791</v>
+        <v>12.01105442993963</v>
       </c>
       <c r="O16">
-        <v>22.06689494911797</v>
+        <v>15.15480794633737</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.470876814201532</v>
+        <v>8.664999450535015</v>
       </c>
       <c r="D17">
-        <v>9.709421782657737</v>
+        <v>7.215645022187421</v>
       </c>
       <c r="E17">
-        <v>13.71771233269658</v>
+        <v>9.139129474029458</v>
       </c>
       <c r="F17">
-        <v>29.9129596791701</v>
+        <v>22.38048937286752</v>
       </c>
       <c r="G17">
-        <v>29.82755515302822</v>
+        <v>25.66104712433945</v>
       </c>
       <c r="H17">
-        <v>14.38997707211652</v>
+        <v>8.732534202668223</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.842075505834591</v>
+        <v>5.555085035616606</v>
       </c>
       <c r="K17">
-        <v>13.8379639091931</v>
+        <v>21.01185230646161</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.7913362492041</v>
+        <v>16.98215668831699</v>
       </c>
       <c r="N17">
-        <v>17.48754677895933</v>
+        <v>12.03965370142535</v>
       </c>
       <c r="O17">
-        <v>22.08256370781773</v>
+        <v>15.05263267860548</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.428316902211532</v>
+        <v>8.553435214678853</v>
       </c>
       <c r="D18">
-        <v>9.703946479296768</v>
+        <v>7.166350100974984</v>
       </c>
       <c r="E18">
-        <v>13.71936985836182</v>
+        <v>9.102098397232272</v>
       </c>
       <c r="F18">
-        <v>29.91424206595592</v>
+        <v>22.24745663636025</v>
       </c>
       <c r="G18">
-        <v>29.81723451237126</v>
+        <v>25.45341166849197</v>
       </c>
       <c r="H18">
-        <v>14.39867059176237</v>
+        <v>8.724771030186238</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.847562079632549</v>
+        <v>5.561304048615741</v>
       </c>
       <c r="K18">
-        <v>13.73422417735951</v>
+        <v>20.76363583532636</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.74615682485651</v>
+        <v>16.77548649720735</v>
       </c>
       <c r="N18">
-        <v>17.49503192577197</v>
+        <v>12.05652056046865</v>
       </c>
       <c r="O18">
-        <v>22.092101313232</v>
+        <v>14.99538276893582</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.413851273987475</v>
+        <v>8.515384506585095</v>
       </c>
       <c r="D19">
-        <v>9.702114886336915</v>
+        <v>7.149634937383402</v>
       </c>
       <c r="E19">
-        <v>13.71996938407968</v>
+        <v>9.089628626011944</v>
       </c>
       <c r="F19">
-        <v>29.91480688734866</v>
+        <v>22.2026569414836</v>
       </c>
       <c r="G19">
-        <v>29.8139158140366</v>
+        <v>25.38335306961937</v>
       </c>
       <c r="H19">
-        <v>14.4016574067452</v>
+        <v>8.722280167456194</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.849438727581706</v>
+        <v>5.563458799659889</v>
       </c>
       <c r="K19">
-        <v>13.69893058559836</v>
+        <v>20.67894312803721</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.7308659797091</v>
+        <v>16.70497128751135</v>
       </c>
       <c r="N19">
-        <v>17.49759512274295</v>
+        <v>12.06230223524786</v>
       </c>
       <c r="O19">
-        <v>22.09542073271923</v>
+        <v>14.97625838599545</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.478726935860399</v>
+        <v>8.685516170489723</v>
       </c>
       <c r="D20">
-        <v>9.710445682460069</v>
+        <v>7.224756311617315</v>
       </c>
       <c r="E20">
-        <v>13.71742375716477</v>
+        <v>9.146015439461806</v>
       </c>
       <c r="F20">
-        <v>29.91278438610302</v>
+        <v>22.40522562717257</v>
       </c>
       <c r="G20">
-        <v>29.82954869631664</v>
+        <v>25.69959011942232</v>
       </c>
       <c r="H20">
-        <v>14.38838868716336</v>
+        <v>8.734036799413209</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.841069081825271</v>
+        <v>5.55395750515361</v>
       </c>
       <c r="K20">
-        <v>13.85708276334711</v>
+        <v>21.05748266504757</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.79970056593935</v>
+        <v>17.02015040005859</v>
       </c>
       <c r="N20">
-        <v>17.48617514819478</v>
+        <v>12.03656587135176</v>
       </c>
       <c r="O20">
-        <v>22.08084135134079</v>
+        <v>15.06335192093671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.692621373875485</v>
+        <v>9.238019094900594</v>
       </c>
       <c r="D21">
-        <v>9.739968538770954</v>
+        <v>7.475235245541217</v>
       </c>
       <c r="E21">
-        <v>13.71153316220935</v>
+        <v>9.340156055616143</v>
       </c>
       <c r="F21">
-        <v>29.9150750179509</v>
+        <v>23.10242788699142</v>
       </c>
       <c r="G21">
-        <v>29.89427408327161</v>
+        <v>26.77832885616808</v>
       </c>
       <c r="H21">
-        <v>14.34682517781491</v>
+        <v>8.783376528369832</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.814268038477861</v>
+        <v>5.525540490775393</v>
       </c>
       <c r="K21">
-        <v>14.37627084165804</v>
+        <v>22.28419288722097</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.03122547464306</v>
+        <v>18.04172057198533</v>
       </c>
       <c r="N21">
-        <v>17.44981037022988</v>
+        <v>11.95514454630245</v>
       </c>
       <c r="O21">
-        <v>22.03813898125131</v>
+        <v>15.37421238111995</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.829140032493616</v>
+        <v>9.585045994048594</v>
       </c>
       <c r="D22">
-        <v>9.760387020442311</v>
+        <v>7.63729188094888</v>
       </c>
       <c r="E22">
-        <v>13.70966355975708</v>
+        <v>9.470457947953374</v>
       </c>
       <c r="F22">
-        <v>29.92333983984734</v>
+        <v>23.57011939716223</v>
       </c>
       <c r="G22">
-        <v>29.94563764077175</v>
+        <v>27.49468344839013</v>
       </c>
       <c r="H22">
-        <v>14.32191318262609</v>
+        <v>8.823266295627214</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.797734407629614</v>
+        <v>5.509691426828228</v>
       </c>
       <c r="K22">
-        <v>14.70605359909113</v>
+        <v>23.05247406020394</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.1825208581911</v>
+        <v>18.68174644488778</v>
       </c>
       <c r="N22">
-        <v>17.4275351515392</v>
+        <v>11.90584335069126</v>
       </c>
       <c r="O22">
-        <v>22.01492493753267</v>
+        <v>15.59117239565249</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.75659112541301</v>
+        <v>9.401106336863585</v>
       </c>
       <c r="D23">
-        <v>9.749387710244362</v>
+        <v>7.550962812994314</v>
       </c>
       <c r="E23">
-        <v>13.71048049301148</v>
+        <v>9.400605215558718</v>
       </c>
       <c r="F23">
-        <v>29.91830991692808</v>
+        <v>23.31942420553549</v>
       </c>
       <c r="G23">
-        <v>29.91739721558606</v>
+        <v>27.1113594104727</v>
       </c>
       <c r="H23">
-        <v>14.33500291485374</v>
+        <v>8.801257232355084</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.806468909401394</v>
+        <v>5.5178939395397</v>
       </c>
       <c r="K23">
-        <v>14.53094254148284</v>
+        <v>22.64547487763108</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.10178657951132</v>
+        <v>18.34266492634237</v>
       </c>
       <c r="N23">
-        <v>17.43928758972081</v>
+        <v>11.931788402037</v>
       </c>
       <c r="O23">
-        <v>22.02688444371876</v>
+        <v>15.47410262425251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.475178987197774</v>
+        <v>8.676245723040466</v>
       </c>
       <c r="D24">
-        <v>9.709982383373191</v>
+        <v>7.220637637915599</v>
       </c>
       <c r="E24">
-        <v>13.71755352555987</v>
+        <v>9.14290111522622</v>
       </c>
       <c r="F24">
-        <v>29.91286126625358</v>
+        <v>22.39403818361903</v>
       </c>
       <c r="G24">
-        <v>29.82864424692482</v>
+        <v>25.68216079317272</v>
       </c>
       <c r="H24">
-        <v>14.38910599778651</v>
+        <v>8.733354962716069</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.841523734285881</v>
+        <v>5.554466353169393</v>
       </c>
       <c r="K24">
-        <v>13.84844238799241</v>
+        <v>21.03686531308952</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.79591903011378</v>
+        <v>17.00298350661148</v>
       </c>
       <c r="N24">
-        <v>17.48679472909744</v>
+        <v>12.03796055842307</v>
       </c>
       <c r="O24">
-        <v>22.0816183797458</v>
+        <v>15.05850110737582</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.159161381112855</v>
+        <v>7.832810608610033</v>
       </c>
       <c r="D25">
-        <v>9.672419357318821</v>
+        <v>6.858725924775184</v>
       </c>
       <c r="E25">
-        <v>13.73370921650891</v>
+        <v>8.880089099763907</v>
       </c>
       <c r="F25">
-        <v>29.93605489147386</v>
+        <v>21.44974168751422</v>
       </c>
       <c r="G25">
-        <v>29.77199075773625</v>
+        <v>24.19433019797317</v>
       </c>
       <c r="H25">
-        <v>14.45711373251531</v>
+        <v>8.690905034631848</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.883562268589346</v>
+        <v>5.60490876410415</v>
       </c>
       <c r="K25">
-        <v>13.07442313536366</v>
+        <v>19.15696270908224</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.46724707371117</v>
+        <v>15.43780164388973</v>
       </c>
       <c r="N25">
-        <v>17.5444605757425</v>
+        <v>12.16834330546113</v>
       </c>
       <c r="O25">
-        <v>22.16073027034967</v>
+        <v>14.66802937683695</v>
       </c>
     </row>
   </sheetData>
